--- a/Table/Table_xls/h伙伴系统/h伙伴信息配置表.xlsx
+++ b/Table/Table_xls/h伙伴系统/h伙伴信息配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,8 +393,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -447,6 +447,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -456,21 +471,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -489,9 +498,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,9 +535,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,8 +567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,38 +578,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -662,6 +662,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -674,73 +758,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,85 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -877,27 +877,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -914,6 +894,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,21 +956,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -964,10 +964,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -976,7 +976,7 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,124 +985,124 @@
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1123,7 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1132,7 +1132,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1148,9 +1151,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1571,20 +1571,20 @@
   <dimension ref="A1:BF157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:G34"/>
+      <selection pane="bottomRight" activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="58" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="96" spans="1:58">
+    <row r="1" s="1" customFormat="1" ht="99.5" spans="1:58">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="F6" s="5">
         <v>1040119</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>30329</v>
       </c>
       <c r="H6" s="7">
@@ -2765,7 +2765,7 @@
       <c r="F8" s="5">
         <v>1040120</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>30331</v>
       </c>
       <c r="H8" s="7">
@@ -2932,7 +2932,7 @@
       <c r="F9" s="5">
         <v>1040120</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="10">
         <v>30331</v>
       </c>
       <c r="H9" s="7">
@@ -3082,7 +3082,7 @@
       <c r="A10" s="3">
         <v>28108</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C10">
@@ -3097,7 +3097,7 @@
       <c r="F10" s="5">
         <v>1040121</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="6">
         <v>30330</v>
       </c>
       <c r="H10" s="7">
@@ -3251,7 +3251,7 @@
       <c r="A11" s="3">
         <v>28109</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C11">
@@ -3266,7 +3266,7 @@
       <c r="F11" s="5">
         <v>1040126</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="9">
         <v>66</v>
       </c>
       <c r="H11" s="7">
@@ -3420,7 +3420,7 @@
       <c r="A12" s="3">
         <v>28110</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C12">
@@ -3435,7 +3435,7 @@
       <c r="F12" s="5">
         <v>1040121</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="12">
         <v>30330</v>
       </c>
       <c r="H12" s="7">
@@ -3589,7 +3589,7 @@
       <c r="A13" s="3">
         <v>28111</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C13">
@@ -3604,7 +3604,7 @@
       <c r="F13" s="5">
         <v>1040122</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="6">
         <v>30328</v>
       </c>
       <c r="H13" s="7">
@@ -3754,7 +3754,7 @@
       <c r="A14" s="3">
         <v>28112</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C14">
@@ -3769,7 +3769,7 @@
       <c r="F14" s="5">
         <v>1040126</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="14">
         <v>66</v>
       </c>
       <c r="H14" s="7">
@@ -3921,7 +3921,7 @@
       <c r="A15" s="3">
         <v>28113</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C15">
@@ -3936,7 +3936,7 @@
       <c r="F15" s="5">
         <v>1040122</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="14">
         <v>30328</v>
       </c>
       <c r="H15" s="7">
@@ -4101,7 +4101,7 @@
       <c r="F16" s="5">
         <v>1040123</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="15">
         <v>30327</v>
       </c>
       <c r="H16" s="7">
@@ -4268,7 +4268,7 @@
       <c r="F17" s="5">
         <v>1040125</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="9">
         <v>67</v>
       </c>
       <c r="H17" s="7">
@@ -4435,7 +4435,7 @@
       <c r="F18" s="5">
         <v>1040124</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="6">
         <v>30326</v>
       </c>
       <c r="H18" s="7">
@@ -4600,7 +4600,7 @@
       <c r="F19" s="5">
         <v>1040124</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="6">
         <v>30326</v>
       </c>
       <c r="H19" s="7">
@@ -4765,7 +4765,7 @@
       <c r="F20" s="5">
         <v>1040123</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="15">
         <v>30327</v>
       </c>
       <c r="H20" s="7">
@@ -4930,7 +4930,7 @@
       <c r="F21" s="5">
         <v>1040123</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="15">
         <v>30327</v>
       </c>
       <c r="H21" s="7">
@@ -5095,7 +5095,7 @@
       <c r="F22" s="5">
         <v>1040125</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="15">
         <v>67</v>
       </c>
       <c r="H22" s="7">
@@ -5260,7 +5260,7 @@
       <c r="F23" s="5">
         <v>1040124</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="15">
         <v>30326</v>
       </c>
       <c r="H23" s="7">
@@ -5410,7 +5410,7 @@
       <c r="A24" s="3">
         <v>28122</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C24">
@@ -5425,7 +5425,7 @@
       <c r="F24" s="5">
         <v>1040121</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <v>30330</v>
       </c>
       <c r="H24" s="7">
@@ -5575,7 +5575,7 @@
       <c r="A25" s="3">
         <v>28123</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C25">
@@ -5590,7 +5590,7 @@
       <c r="F25" s="5">
         <v>1040126</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="12">
         <v>66</v>
       </c>
       <c r="H25" s="7">
@@ -5740,7 +5740,7 @@
       <c r="A26" s="3">
         <v>28124</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C26">
@@ -5755,7 +5755,7 @@
       <c r="F26" s="5">
         <v>1040122</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="14">
         <v>30328</v>
       </c>
       <c r="H26" s="7">
@@ -5905,7 +5905,7 @@
       <c r="A27" s="3">
         <v>28125</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C27">
@@ -5920,7 +5920,7 @@
       <c r="F27" s="5">
         <v>1040122</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="14">
         <v>30328</v>
       </c>
       <c r="H27" s="7">
@@ -6085,7 +6085,7 @@
       <c r="F28" s="5">
         <v>1040123</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="15">
         <v>30327</v>
       </c>
       <c r="H28" s="7">
@@ -6250,7 +6250,7 @@
       <c r="F29" s="5">
         <v>1040125</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="15">
         <v>67</v>
       </c>
       <c r="H29" s="7">
@@ -6415,7 +6415,7 @@
       <c r="F30" s="5">
         <v>1040123</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="15">
         <v>30327</v>
       </c>
       <c r="H30" s="7">
@@ -6580,7 +6580,7 @@
       <c r="F31" s="5">
         <v>1040119</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="10">
         <v>30329</v>
       </c>
       <c r="H31" s="7">
@@ -6745,7 +6745,7 @@
       <c r="F32" s="5">
         <v>1040127</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="10">
         <v>65</v>
       </c>
       <c r="H32" s="7">
@@ -6912,7 +6912,7 @@
       <c r="F33" s="5">
         <v>1040120</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="10">
         <v>30331</v>
       </c>
       <c r="H33" s="7">
@@ -7076,7 +7076,7 @@
       <c r="F34" s="5">
         <v>1040120</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="10">
         <v>30331</v>
       </c>
       <c r="H34" s="7">
@@ -7223,7 +7223,7 @@
       </c>
     </row>
     <row r="35" spans="7:39">
-      <c r="G35" s="15"/>
+      <c r="G35" s="9"/>
       <c r="AL35" s="21"/>
       <c r="AM35" s="21"/>
     </row>
@@ -7727,7 +7727,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7744,7 +7744,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/h伙伴系统/h伙伴信息配置表.xlsx
+++ b/Table/Table_xls/h伙伴系统/h伙伴信息配置表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,9 +392,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -462,16 +462,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,37 +483,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,6 +514,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,7 +554,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,12 +576,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -590,18 +595,13 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -611,6 +611,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -662,19 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,13 +680,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,19 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,43 +800,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,55 +812,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,17 +907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -935,9 +924,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,192 +947,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1150,27 +1147,43 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="31" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="31" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1571,20 +1584,20 @@
   <dimension ref="A1:BF157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL10" sqref="AL10"/>
+      <selection pane="bottomRight" activeCell="AN13" sqref="AN13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="3" max="58" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="99.5" spans="1:58">
+    <row r="1" s="1" customFormat="1" ht="102.6" spans="1:58">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,10 +1607,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1606,40 +1619,40 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="20" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -1672,7 +1685,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -1699,13 +1712,13 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
@@ -1717,7 +1730,7 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
@@ -1741,16 +1754,16 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="26" t="s">
+      <c r="BA1" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="26" t="s">
+      <c r="BB1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="26" t="s">
+      <c r="BC1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="26" t="s">
+      <c r="BD1" s="33" t="s">
         <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
@@ -1761,10 +1774,10 @@
       </c>
     </row>
     <row r="2" spans="1:58">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>28100</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C2">
@@ -1776,13 +1789,13 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>1040119</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>30329</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2">
@@ -1848,29 +1861,29 @@
       <c r="AC2">
         <v>10.4</v>
       </c>
-      <c r="AE2" s="17">
+      <c r="AE2" s="21">
         <v>711001</v>
       </c>
-      <c r="AF2" s="17">
+      <c r="AF2" s="21">
         <v>711002</v>
       </c>
-      <c r="AG2" s="17">
+      <c r="AG2" s="21">
         <v>711003</v>
       </c>
-      <c r="AH2" s="17">
+      <c r="AH2" s="21">
         <v>711004</v>
       </c>
-      <c r="AI2" s="17">
+      <c r="AI2" s="21">
         <v>711005</v>
       </c>
-      <c r="AJ2" s="17">
+      <c r="AJ2" s="21">
         <v>711007</v>
       </c>
-      <c r="AK2" s="17">
+      <c r="AK2" s="21">
         <v>711008</v>
       </c>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="17">
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="21">
         <v>711001</v>
       </c>
       <c r="AP2">
@@ -1925,10 +1938,10 @@
       </c>
     </row>
     <row r="3" spans="1:58">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>28101</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C3">
@@ -1940,13 +1953,13 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>1040119</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>30329</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>1</v>
       </c>
       <c r="I3">
@@ -2012,29 +2025,29 @@
       <c r="AC3">
         <v>10.4</v>
       </c>
-      <c r="AE3" s="18">
+      <c r="AE3" s="22">
         <v>712001</v>
       </c>
-      <c r="AF3" s="18">
+      <c r="AF3" s="22">
         <v>712002</v>
       </c>
-      <c r="AG3" s="18">
+      <c r="AG3" s="22">
         <v>712003</v>
       </c>
-      <c r="AH3" s="18">
+      <c r="AH3" s="22">
         <v>712004</v>
       </c>
-      <c r="AI3" s="18">
+      <c r="AI3" s="22">
         <v>712005</v>
       </c>
-      <c r="AJ3" s="18">
+      <c r="AJ3" s="22">
         <v>712007</v>
       </c>
-      <c r="AK3" s="18">
+      <c r="AK3" s="22">
         <v>712008</v>
       </c>
-      <c r="AM3" s="21"/>
-      <c r="AN3" s="18">
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="22">
         <v>712003</v>
       </c>
       <c r="AP3">
@@ -2089,10 +2102,10 @@
       </c>
     </row>
     <row r="4" spans="1:58">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>28102</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C4">
@@ -2104,13 +2117,13 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>1040127</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>65</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
       <c r="I4">
@@ -2176,29 +2189,29 @@
       <c r="AC4">
         <v>10.4</v>
       </c>
-      <c r="AE4" s="17">
+      <c r="AE4" s="21">
         <v>713001</v>
       </c>
-      <c r="AF4" s="17">
+      <c r="AF4" s="21">
         <v>713002</v>
       </c>
-      <c r="AG4" s="17">
+      <c r="AG4" s="21">
         <v>713003</v>
       </c>
-      <c r="AH4" s="17">
+      <c r="AH4" s="21">
         <v>713004</v>
       </c>
-      <c r="AI4" s="17">
+      <c r="AI4" s="21">
         <v>713005</v>
       </c>
-      <c r="AJ4" s="17">
+      <c r="AJ4" s="21">
         <v>713007</v>
       </c>
-      <c r="AK4" s="17">
+      <c r="AK4" s="21">
         <v>713008</v>
       </c>
-      <c r="AM4" s="21"/>
-      <c r="AN4" s="17">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="21">
         <v>713003</v>
       </c>
       <c r="AP4">
@@ -2253,10 +2266,10 @@
       </c>
     </row>
     <row r="5" spans="1:58">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>28103</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C5">
@@ -2268,13 +2281,13 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>1040120</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>30331</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>1</v>
       </c>
       <c r="I5">
@@ -2340,29 +2353,29 @@
       <c r="AC5">
         <v>10.4</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="22">
         <v>714001</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="22">
         <v>714002</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AG5" s="22">
         <v>714003</v>
       </c>
-      <c r="AH5" s="18">
+      <c r="AH5" s="22">
         <v>714004</v>
       </c>
-      <c r="AI5" s="18">
+      <c r="AI5" s="22">
         <v>714005</v>
       </c>
-      <c r="AJ5" s="18">
+      <c r="AJ5" s="22">
         <v>714007</v>
       </c>
-      <c r="AK5" s="18">
+      <c r="AK5" s="22">
         <v>714008</v>
       </c>
-      <c r="AM5" s="21"/>
-      <c r="AN5" s="18">
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="22">
         <v>714001</v>
       </c>
       <c r="AP5">
@@ -2417,10 +2430,10 @@
       </c>
     </row>
     <row r="6" spans="1:58">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>28104</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C6">
@@ -2432,13 +2445,13 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>1040119</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <v>30329</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>1</v>
       </c>
       <c r="I6">
@@ -2504,30 +2517,30 @@
       <c r="AC6">
         <v>10.4</v>
       </c>
-      <c r="AE6" s="17">
+      <c r="AE6" s="21">
         <v>721001</v>
       </c>
-      <c r="AF6" s="17">
+      <c r="AF6" s="21">
         <v>721002</v>
       </c>
-      <c r="AG6" s="17">
+      <c r="AG6" s="21">
         <v>721003</v>
       </c>
-      <c r="AH6" s="17">
+      <c r="AH6" s="21">
         <v>721004</v>
       </c>
-      <c r="AI6" s="17">
+      <c r="AI6" s="21">
         <v>721005</v>
       </c>
-      <c r="AJ6" s="17">
+      <c r="AJ6" s="21">
         <v>721006</v>
       </c>
-      <c r="AK6" s="17">
+      <c r="AK6" s="21">
         <v>721007</v>
       </c>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="17">
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="21">
         <v>721004</v>
       </c>
       <c r="AP6">
@@ -2582,10 +2595,10 @@
       </c>
     </row>
     <row r="7" spans="1:58">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>28105</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C7">
@@ -2597,13 +2610,13 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>1040127</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>65</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>1</v>
       </c>
       <c r="I7">
@@ -2669,30 +2682,30 @@
       <c r="AC7">
         <v>10.4</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="22">
         <v>722001</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="22">
         <v>722002</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AG7" s="22">
         <v>722003</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="22">
         <v>722004</v>
       </c>
-      <c r="AI7" s="18">
+      <c r="AI7" s="22">
         <v>722005</v>
       </c>
-      <c r="AJ7" s="18">
+      <c r="AJ7" s="22">
         <v>722006</v>
       </c>
-      <c r="AK7" s="18">
+      <c r="AK7" s="22">
         <v>722007</v>
       </c>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="18">
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="22">
         <v>722001</v>
       </c>
       <c r="AP7">
@@ -2747,10 +2760,10 @@
       </c>
     </row>
     <row r="8" spans="1:58">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>28106</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C8">
@@ -2762,13 +2775,13 @@
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>1040120</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>30331</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>1</v>
       </c>
       <c r="I8">
@@ -2834,32 +2847,32 @@
       <c r="AC8">
         <v>10.4</v>
       </c>
-      <c r="AE8" s="17">
+      <c r="AE8" s="21">
         <v>723001</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AF8" s="21">
         <v>723002</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AG8" s="21">
         <v>723003</v>
       </c>
-      <c r="AH8" s="17">
+      <c r="AH8" s="21">
         <v>723004</v>
       </c>
-      <c r="AI8" s="17">
+      <c r="AI8" s="21">
         <v>723005</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AJ8" s="21">
         <v>723006</v>
       </c>
-      <c r="AK8" s="17">
+      <c r="AK8" s="21">
         <v>723007</v>
       </c>
-      <c r="AL8" s="17">
+      <c r="AL8" s="21">
         <v>723008</v>
       </c>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="17">
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="21">
         <v>723002</v>
       </c>
       <c r="AP8">
@@ -2914,10 +2927,10 @@
       </c>
     </row>
     <row r="9" spans="1:58">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>28107</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C9">
@@ -2929,13 +2942,13 @@
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>1040120</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <v>30331</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>1</v>
       </c>
       <c r="I9">
@@ -3001,30 +3014,30 @@
       <c r="AC9">
         <v>10.4</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="22">
         <v>724001</v>
       </c>
-      <c r="AF9" s="18">
+      <c r="AF9" s="22">
         <v>724002</v>
       </c>
-      <c r="AG9" s="18">
+      <c r="AG9" s="22">
         <v>724003</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AH9" s="22">
         <v>724004</v>
       </c>
-      <c r="AI9" s="18">
+      <c r="AI9" s="22">
         <v>724005</v>
       </c>
-      <c r="AJ9" s="18">
+      <c r="AJ9" s="22">
         <v>724006</v>
       </c>
-      <c r="AK9" s="18">
+      <c r="AK9" s="22">
         <v>724007</v>
       </c>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="18">
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="22">
         <v>724004</v>
       </c>
       <c r="AP9">
@@ -3079,10 +3092,10 @@
       </c>
     </row>
     <row r="10" spans="1:58">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>28108</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C10">
@@ -3094,13 +3107,13 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>1040121</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>30330</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>1</v>
       </c>
       <c r="I10">
@@ -3166,34 +3179,34 @@
       <c r="AC10">
         <v>10.4</v>
       </c>
-      <c r="AE10" s="17">
+      <c r="AE10" s="21">
         <v>731001</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AF10" s="21">
         <v>731002</v>
       </c>
-      <c r="AG10" s="17">
+      <c r="AG10" s="21">
         <v>731003</v>
       </c>
-      <c r="AH10" s="17">
+      <c r="AH10" s="21">
         <v>731004</v>
       </c>
-      <c r="AI10" s="17">
+      <c r="AI10" s="21">
         <v>731005</v>
       </c>
-      <c r="AJ10" s="17">
+      <c r="AJ10" s="21">
         <v>731006</v>
       </c>
-      <c r="AK10" s="17">
+      <c r="AK10" s="21">
         <v>731007</v>
       </c>
-      <c r="AL10" s="17">
+      <c r="AL10" s="21">
         <v>731008</v>
       </c>
-      <c r="AM10" s="22">
+      <c r="AM10" s="27">
         <v>731000</v>
       </c>
-      <c r="AN10" s="17">
+      <c r="AN10" s="21">
         <v>731001</v>
       </c>
       <c r="AP10">
@@ -3248,10 +3261,10 @@
       </c>
     </row>
     <row r="11" spans="1:58">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>28109</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C11">
@@ -3263,13 +3276,13 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>1040126</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>66</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>1</v>
       </c>
       <c r="I11">
@@ -3335,34 +3348,34 @@
       <c r="AC11">
         <v>10.4</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE11" s="22">
         <v>732001</v>
       </c>
-      <c r="AF11" s="18">
+      <c r="AF11" s="22">
         <v>732002</v>
       </c>
-      <c r="AG11" s="18">
+      <c r="AG11" s="22">
         <v>732003</v>
       </c>
-      <c r="AH11" s="18">
+      <c r="AH11" s="22">
         <v>732004</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AI11" s="22">
         <v>732005</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AJ11" s="22">
         <v>732006</v>
       </c>
-      <c r="AK11" s="18">
+      <c r="AK11" s="22">
         <v>732007</v>
       </c>
-      <c r="AL11" s="18">
+      <c r="AL11" s="22">
         <v>732008</v>
       </c>
-      <c r="AM11" s="23">
+      <c r="AM11" s="28">
         <v>732000</v>
       </c>
-      <c r="AN11" s="18">
+      <c r="AN11" s="22">
         <v>732005</v>
       </c>
       <c r="AP11">
@@ -3417,10 +3430,10 @@
       </c>
     </row>
     <row r="12" spans="1:58">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>28110</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C12">
@@ -3432,13 +3445,13 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>1040121</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="13">
         <v>30330</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12">
@@ -3504,34 +3517,34 @@
       <c r="AC12">
         <v>10.4</v>
       </c>
-      <c r="AE12" s="17">
+      <c r="AE12" s="21">
         <v>733001</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AF12" s="21">
         <v>733002</v>
       </c>
-      <c r="AG12" s="17">
+      <c r="AG12" s="21">
         <v>733003</v>
       </c>
-      <c r="AH12" s="17">
+      <c r="AH12" s="21">
         <v>733004</v>
       </c>
-      <c r="AI12" s="17">
+      <c r="AI12" s="21">
         <v>733005</v>
       </c>
-      <c r="AJ12" s="17">
+      <c r="AJ12" s="21">
         <v>733006</v>
       </c>
-      <c r="AK12" s="17">
+      <c r="AK12" s="21">
         <v>733007</v>
       </c>
-      <c r="AL12" s="17">
+      <c r="AL12" s="21">
         <v>733008</v>
       </c>
-      <c r="AM12" s="22">
+      <c r="AM12" s="27">
         <v>733000</v>
       </c>
-      <c r="AN12" s="17">
+      <c r="AN12" s="21">
         <v>733001</v>
       </c>
       <c r="AP12">
@@ -3585,176 +3598,176 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:58">
-      <c r="A13" s="3">
+    <row r="13" s="2" customFormat="1" spans="1:58">
+      <c r="A13" s="14">
         <v>28111</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="16">
         <v>1040122</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="17">
         <v>30328</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>194</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <v>200</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>97</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <v>49</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <v>78</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>39</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <v>29</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <v>19</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
         <v>42.84</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <v>34.62</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="2">
         <v>5.89</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="2">
         <v>7.29</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="2">
         <v>6.33</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <v>5.92</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="2">
         <v>7.52</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="2">
         <v>1.46</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="2">
         <v>10.3</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="2">
         <v>10.4</v>
       </c>
-      <c r="AE13" s="18">
+      <c r="AE13" s="23">
         <v>741001</v>
       </c>
-      <c r="AF13" s="18">
+      <c r="AF13" s="23">
         <v>741002</v>
       </c>
-      <c r="AG13" s="18">
+      <c r="AG13" s="23">
         <v>741003</v>
       </c>
-      <c r="AH13" s="18">
+      <c r="AH13" s="23">
         <v>741004</v>
       </c>
-      <c r="AI13" s="18">
+      <c r="AI13" s="23">
         <v>741005</v>
       </c>
-      <c r="AJ13" s="18">
+      <c r="AJ13" s="23">
         <v>741006</v>
       </c>
-      <c r="AK13" s="18">
+      <c r="AK13" s="23">
         <v>741007</v>
       </c>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="21"/>
-      <c r="AN13" s="18">
-        <v>741004</v>
-      </c>
-      <c r="AP13">
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="30">
+        <v>741001</v>
+      </c>
+      <c r="AP13" s="2">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="2">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="2">
         <f t="shared" si="3"/>
         <v>14700</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="2">
         <v>60000</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" s="2">
         <f t="shared" si="4"/>
         <v>210000</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" s="2">
         <f t="shared" si="5"/>
         <v>1470000</v>
       </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
+      <c r="AX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
         <v>13100</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" s="2">
         <v>13007</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" s="2">
         <v>13007</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" s="2">
         <v>13007</v>
       </c>
-      <c r="BE13">
-        <v>1</v>
-      </c>
-      <c r="BF13">
+      <c r="BE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:58">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>28112</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C14">
@@ -3766,13 +3779,13 @@
       <c r="E14">
         <v>5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>1040126</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="19">
         <v>66</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>1</v>
       </c>
       <c r="I14">
@@ -3838,32 +3851,32 @@
       <c r="AC14">
         <v>10.4</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="AE14" s="21">
         <v>742001</v>
       </c>
-      <c r="AF14" s="17">
+      <c r="AF14" s="21">
         <v>742002</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="AG14" s="21">
         <v>742003</v>
       </c>
-      <c r="AH14" s="17">
+      <c r="AH14" s="21">
         <v>742004</v>
       </c>
-      <c r="AI14" s="17">
+      <c r="AI14" s="21">
         <v>742005</v>
       </c>
-      <c r="AJ14" s="17">
+      <c r="AJ14" s="21">
         <v>742006</v>
       </c>
-      <c r="AK14" s="17">
+      <c r="AK14" s="21">
         <v>742007</v>
       </c>
-      <c r="AL14" s="17">
+      <c r="AL14" s="21">
         <v>792008</v>
       </c>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="17">
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="21">
         <v>742004</v>
       </c>
       <c r="AP14">
@@ -3918,10 +3931,10 @@
       </c>
     </row>
     <row r="15" spans="1:58">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>28113</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C15">
@@ -3933,13 +3946,13 @@
       <c r="E15">
         <v>5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>1040122</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="19">
         <v>30328</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>1</v>
       </c>
       <c r="I15">
@@ -4005,30 +4018,30 @@
       <c r="AC15">
         <v>10.4</v>
       </c>
-      <c r="AE15" s="18">
+      <c r="AE15" s="22">
         <v>743001</v>
       </c>
-      <c r="AF15" s="18">
+      <c r="AF15" s="22">
         <v>743002</v>
       </c>
-      <c r="AG15" s="18">
+      <c r="AG15" s="22">
         <v>743003</v>
       </c>
-      <c r="AH15" s="18">
+      <c r="AH15" s="22">
         <v>743004</v>
       </c>
-      <c r="AI15" s="18">
+      <c r="AI15" s="22">
         <v>743005</v>
       </c>
-      <c r="AJ15" s="18">
+      <c r="AJ15" s="22">
         <v>743006</v>
       </c>
-      <c r="AK15" s="18">
+      <c r="AK15" s="22">
         <v>743007</v>
       </c>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="21"/>
-      <c r="AN15" s="18">
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="22">
         <v>743003</v>
       </c>
       <c r="AP15">
@@ -4083,10 +4096,10 @@
       </c>
     </row>
     <row r="16" spans="1:58">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>28114</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C16">
@@ -4098,13 +4111,13 @@
       <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>1040123</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="7">
         <v>30327</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>1</v>
       </c>
       <c r="I16">
@@ -4170,32 +4183,32 @@
       <c r="AC16">
         <v>10.4</v>
       </c>
-      <c r="AE16" s="17">
+      <c r="AE16" s="21">
         <v>751001</v>
       </c>
-      <c r="AF16" s="17">
+      <c r="AF16" s="21">
         <v>751002</v>
       </c>
-      <c r="AG16" s="17">
+      <c r="AG16" s="21">
         <v>751003</v>
       </c>
-      <c r="AH16" s="17">
+      <c r="AH16" s="21">
         <v>751004</v>
       </c>
-      <c r="AI16" s="17">
+      <c r="AI16" s="21">
         <v>751005</v>
       </c>
-      <c r="AJ16" s="17">
+      <c r="AJ16" s="21">
         <v>751006</v>
       </c>
-      <c r="AK16" s="17">
+      <c r="AK16" s="21">
         <v>751007</v>
       </c>
-      <c r="AL16" s="17">
+      <c r="AL16" s="21">
         <v>751008</v>
       </c>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="17">
+      <c r="AM16" s="26"/>
+      <c r="AN16" s="21">
         <v>751002</v>
       </c>
       <c r="AP16">
@@ -4250,10 +4263,10 @@
       </c>
     </row>
     <row r="17" spans="1:58">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>28115</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C17">
@@ -4265,13 +4278,13 @@
       <c r="E17">
         <v>2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>1040125</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="10">
         <v>67</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>1</v>
       </c>
       <c r="I17">
@@ -4337,32 +4350,32 @@
       <c r="AC17">
         <v>10.4</v>
       </c>
-      <c r="AE17" s="18">
+      <c r="AE17" s="22">
         <v>752001</v>
       </c>
-      <c r="AF17" s="18">
+      <c r="AF17" s="22">
         <v>752002</v>
       </c>
-      <c r="AG17" s="18">
+      <c r="AG17" s="22">
         <v>752003</v>
       </c>
-      <c r="AH17" s="18">
+      <c r="AH17" s="22">
         <v>752004</v>
       </c>
-      <c r="AI17" s="18">
+      <c r="AI17" s="22">
         <v>752005</v>
       </c>
-      <c r="AJ17" s="18">
+      <c r="AJ17" s="22">
         <v>752006</v>
       </c>
-      <c r="AK17" s="18">
+      <c r="AK17" s="22">
         <v>752007</v>
       </c>
-      <c r="AL17" s="18">
+      <c r="AL17" s="22">
         <v>752008</v>
       </c>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="18">
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="22">
         <v>752001</v>
       </c>
       <c r="AP17">
@@ -4417,10 +4430,10 @@
       </c>
     </row>
     <row r="18" spans="1:58">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>28116</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C18">
@@ -4432,13 +4445,13 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>1040124</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>30326</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>1</v>
       </c>
       <c r="I18">
@@ -4504,30 +4517,30 @@
       <c r="AC18">
         <v>10.4</v>
       </c>
-      <c r="AE18" s="17">
+      <c r="AE18" s="21">
         <v>753001</v>
       </c>
-      <c r="AF18" s="17">
+      <c r="AF18" s="21">
         <v>753002</v>
       </c>
-      <c r="AG18" s="17">
+      <c r="AG18" s="21">
         <v>753003</v>
       </c>
-      <c r="AH18" s="17">
+      <c r="AH18" s="21">
         <v>753004</v>
       </c>
-      <c r="AI18" s="17">
+      <c r="AI18" s="21">
         <v>753005</v>
       </c>
-      <c r="AJ18" s="17">
+      <c r="AJ18" s="21">
         <v>753006</v>
       </c>
-      <c r="AK18" s="17">
+      <c r="AK18" s="21">
         <v>753007</v>
       </c>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="21"/>
-      <c r="AN18" s="17">
+      <c r="AL18" s="26"/>
+      <c r="AM18" s="26"/>
+      <c r="AN18" s="21">
         <v>753002</v>
       </c>
       <c r="AP18">
@@ -4582,10 +4595,10 @@
       </c>
     </row>
     <row r="19" spans="1:58">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>28117</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C19">
@@ -4597,13 +4610,13 @@
       <c r="E19">
         <v>2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>1040124</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>30326</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>1</v>
       </c>
       <c r="I19">
@@ -4669,30 +4682,30 @@
       <c r="AC19">
         <v>10.4</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AE19" s="22">
         <v>754001</v>
       </c>
-      <c r="AF19" s="18">
+      <c r="AF19" s="22">
         <v>754002</v>
       </c>
-      <c r="AG19" s="18">
+      <c r="AG19" s="22">
         <v>754003</v>
       </c>
-      <c r="AH19" s="18">
+      <c r="AH19" s="22">
         <v>754004</v>
       </c>
-      <c r="AI19" s="18">
+      <c r="AI19" s="22">
         <v>754005</v>
       </c>
-      <c r="AJ19" s="18">
+      <c r="AJ19" s="22">
         <v>754006</v>
       </c>
-      <c r="AK19" s="18">
+      <c r="AK19" s="22">
         <v>754007</v>
       </c>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="18">
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="22">
         <v>754001</v>
       </c>
       <c r="AP19">
@@ -4747,10 +4760,10 @@
       </c>
     </row>
     <row r="20" spans="1:58">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>28118</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C20">
@@ -4762,13 +4775,13 @@
       <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>1040123</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="7">
         <v>30327</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>1</v>
       </c>
       <c r="I20">
@@ -4834,30 +4847,30 @@
       <c r="AC20">
         <v>10.4</v>
       </c>
-      <c r="AE20" s="17">
+      <c r="AE20" s="21">
         <v>761001</v>
       </c>
-      <c r="AF20" s="17">
+      <c r="AF20" s="21">
         <v>761002</v>
       </c>
-      <c r="AG20" s="17">
+      <c r="AG20" s="21">
         <v>761003</v>
       </c>
-      <c r="AH20" s="17">
+      <c r="AH20" s="21">
         <v>761004</v>
       </c>
-      <c r="AI20" s="17">
+      <c r="AI20" s="21">
         <v>761005</v>
       </c>
-      <c r="AJ20" s="17">
+      <c r="AJ20" s="21">
         <v>761006</v>
       </c>
-      <c r="AK20" s="17">
+      <c r="AK20" s="21">
         <v>761007</v>
       </c>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="21"/>
-      <c r="AN20" s="17">
+      <c r="AL20" s="26"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="21">
         <v>761003</v>
       </c>
       <c r="AP20">
@@ -4912,10 +4925,10 @@
       </c>
     </row>
     <row r="21" spans="1:58">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>28119</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C21">
@@ -4927,13 +4940,13 @@
       <c r="E21">
         <v>3</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>1040123</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="7">
         <v>30327</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="8">
         <v>1</v>
       </c>
       <c r="I21">
@@ -4999,30 +5012,30 @@
       <c r="AC21">
         <v>10.4</v>
       </c>
-      <c r="AE21" s="18">
+      <c r="AE21" s="22">
         <v>762001</v>
       </c>
-      <c r="AF21" s="18">
+      <c r="AF21" s="22">
         <v>762002</v>
       </c>
-      <c r="AG21" s="18">
+      <c r="AG21" s="22">
         <v>762003</v>
       </c>
-      <c r="AH21" s="18">
+      <c r="AH21" s="22">
         <v>762004</v>
       </c>
-      <c r="AI21" s="18">
+      <c r="AI21" s="22">
         <v>762005</v>
       </c>
-      <c r="AJ21" s="18">
+      <c r="AJ21" s="22">
         <v>762006</v>
       </c>
-      <c r="AK21" s="18">
+      <c r="AK21" s="22">
         <v>762007</v>
       </c>
-      <c r="AL21" s="21"/>
-      <c r="AM21" s="21"/>
-      <c r="AN21" s="18">
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="22">
         <v>762002</v>
       </c>
       <c r="AP21">
@@ -5077,10 +5090,10 @@
       </c>
     </row>
     <row r="22" spans="1:58">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>28120</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C22">
@@ -5092,13 +5105,13 @@
       <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>1040125</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="7">
         <v>67</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="8">
         <v>1</v>
       </c>
       <c r="I22">
@@ -5164,30 +5177,30 @@
       <c r="AC22">
         <v>10.4</v>
       </c>
-      <c r="AE22" s="17">
+      <c r="AE22" s="21">
         <v>763001</v>
       </c>
-      <c r="AF22" s="17">
+      <c r="AF22" s="21">
         <v>763002</v>
       </c>
-      <c r="AG22" s="17">
+      <c r="AG22" s="21">
         <v>763003</v>
       </c>
-      <c r="AH22" s="17">
+      <c r="AH22" s="21">
         <v>763004</v>
       </c>
-      <c r="AI22" s="17">
+      <c r="AI22" s="21">
         <v>763005</v>
       </c>
-      <c r="AJ22" s="17">
+      <c r="AJ22" s="21">
         <v>763006</v>
       </c>
-      <c r="AK22" s="17">
+      <c r="AK22" s="21">
         <v>763007</v>
       </c>
-      <c r="AL22" s="21"/>
-      <c r="AM22" s="21"/>
-      <c r="AN22" s="17">
+      <c r="AL22" s="26"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="21">
         <v>763002</v>
       </c>
       <c r="AP22">
@@ -5242,10 +5255,10 @@
       </c>
     </row>
     <row r="23" spans="1:58">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>28121</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C23">
@@ -5257,13 +5270,13 @@
       <c r="E23">
         <v>3</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>1040124</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="7">
         <v>30326</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <v>1</v>
       </c>
       <c r="I23">
@@ -5329,30 +5342,30 @@
       <c r="AC23">
         <v>10.4</v>
       </c>
-      <c r="AE23" s="18">
+      <c r="AE23" s="22">
         <v>764001</v>
       </c>
-      <c r="AF23" s="18">
+      <c r="AF23" s="22">
         <v>764002</v>
       </c>
-      <c r="AG23" s="18">
+      <c r="AG23" s="22">
         <v>764003</v>
       </c>
-      <c r="AH23" s="18">
+      <c r="AH23" s="22">
         <v>764004</v>
       </c>
-      <c r="AI23" s="18">
+      <c r="AI23" s="22">
         <v>764005</v>
       </c>
-      <c r="AJ23" s="18">
+      <c r="AJ23" s="22">
         <v>764006</v>
       </c>
-      <c r="AK23" s="18">
+      <c r="AK23" s="22">
         <v>764007</v>
       </c>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="18">
+      <c r="AL23" s="26"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="22">
         <v>764002</v>
       </c>
       <c r="AP23">
@@ -5407,10 +5420,10 @@
       </c>
     </row>
     <row r="24" spans="1:58">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>28122</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C24">
@@ -5422,13 +5435,13 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>1040121</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="13">
         <v>30330</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="8">
         <v>1</v>
       </c>
       <c r="I24">
@@ -5494,30 +5507,30 @@
       <c r="AC24">
         <v>10.4</v>
       </c>
-      <c r="AE24" s="19">
+      <c r="AE24" s="24">
         <v>771001</v>
       </c>
-      <c r="AF24" s="19">
+      <c r="AF24" s="24">
         <v>771002</v>
       </c>
-      <c r="AG24" s="19">
+      <c r="AG24" s="24">
         <v>771003</v>
       </c>
-      <c r="AH24" s="19">
+      <c r="AH24" s="24">
         <v>771004</v>
       </c>
-      <c r="AI24" s="19">
+      <c r="AI24" s="24">
         <v>771005</v>
       </c>
-      <c r="AJ24" s="19">
+      <c r="AJ24" s="24">
         <v>771006</v>
       </c>
-      <c r="AK24" s="19">
+      <c r="AK24" s="24">
         <v>771007</v>
       </c>
-      <c r="AL24" s="21"/>
-      <c r="AM24" s="21"/>
-      <c r="AN24" s="24">
+      <c r="AL24" s="26"/>
+      <c r="AM24" s="26"/>
+      <c r="AN24" s="31">
         <v>771001</v>
       </c>
       <c r="AP24">
@@ -5572,10 +5585,10 @@
       </c>
     </row>
     <row r="25" spans="1:58">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>28123</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C25">
@@ -5587,13 +5600,13 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <v>1040126</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="13">
         <v>66</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="8">
         <v>1</v>
       </c>
       <c r="I25">
@@ -5659,30 +5672,30 @@
       <c r="AC25">
         <v>10.4</v>
       </c>
-      <c r="AE25" s="20">
+      <c r="AE25" s="25">
         <v>772001</v>
       </c>
-      <c r="AF25" s="20">
+      <c r="AF25" s="25">
         <v>772002</v>
       </c>
-      <c r="AG25" s="20">
+      <c r="AG25" s="25">
         <v>772003</v>
       </c>
-      <c r="AH25" s="20">
+      <c r="AH25" s="25">
         <v>772004</v>
       </c>
-      <c r="AI25" s="20">
+      <c r="AI25" s="25">
         <v>772005</v>
       </c>
-      <c r="AJ25" s="20">
+      <c r="AJ25" s="25">
         <v>772006</v>
       </c>
-      <c r="AK25" s="20">
+      <c r="AK25" s="25">
         <v>772007</v>
       </c>
-      <c r="AL25" s="21"/>
-      <c r="AM25" s="21"/>
-      <c r="AN25" s="25">
+      <c r="AL25" s="26"/>
+      <c r="AM25" s="26"/>
+      <c r="AN25" s="32">
         <v>772004</v>
       </c>
       <c r="AP25">
@@ -5737,10 +5750,10 @@
       </c>
     </row>
     <row r="26" spans="1:58">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>28124</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C26">
@@ -5752,13 +5765,13 @@
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <v>1040122</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="19">
         <v>30328</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="8">
         <v>1</v>
       </c>
       <c r="I26">
@@ -5824,30 +5837,30 @@
       <c r="AC26">
         <v>10.4</v>
       </c>
-      <c r="AE26" s="19">
+      <c r="AE26" s="24">
         <v>773001</v>
       </c>
-      <c r="AF26" s="19">
+      <c r="AF26" s="24">
         <v>773002</v>
       </c>
-      <c r="AG26" s="19">
+      <c r="AG26" s="24">
         <v>773003</v>
       </c>
-      <c r="AH26" s="19">
+      <c r="AH26" s="24">
         <v>773004</v>
       </c>
-      <c r="AI26" s="19">
+      <c r="AI26" s="24">
         <v>773005</v>
       </c>
-      <c r="AJ26" s="19">
+      <c r="AJ26" s="24">
         <v>773006</v>
       </c>
-      <c r="AK26" s="19">
+      <c r="AK26" s="24">
         <v>773007</v>
       </c>
-      <c r="AL26" s="21"/>
-      <c r="AM26" s="21"/>
-      <c r="AN26" s="24">
+      <c r="AL26" s="26"/>
+      <c r="AM26" s="26"/>
+      <c r="AN26" s="31">
         <v>773002</v>
       </c>
       <c r="AP26">
@@ -5902,10 +5915,10 @@
       </c>
     </row>
     <row r="27" spans="1:58">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>28125</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C27">
@@ -5917,13 +5930,13 @@
       <c r="E27">
         <v>2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6">
         <v>1040122</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="19">
         <v>30328</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="8">
         <v>1</v>
       </c>
       <c r="I27">
@@ -5989,30 +6002,30 @@
       <c r="AC27">
         <v>10.4</v>
       </c>
-      <c r="AE27" s="20">
+      <c r="AE27" s="25">
         <v>774001</v>
       </c>
-      <c r="AF27" s="20">
+      <c r="AF27" s="25">
         <v>774002</v>
       </c>
-      <c r="AG27" s="20">
+      <c r="AG27" s="25">
         <v>774003</v>
       </c>
-      <c r="AH27" s="20">
+      <c r="AH27" s="25">
         <v>774004</v>
       </c>
-      <c r="AI27" s="20">
+      <c r="AI27" s="25">
         <v>774005</v>
       </c>
-      <c r="AJ27" s="20">
+      <c r="AJ27" s="25">
         <v>774006</v>
       </c>
-      <c r="AK27" s="20">
+      <c r="AK27" s="25">
         <v>774007</v>
       </c>
-      <c r="AL27" s="21"/>
-      <c r="AM27" s="21"/>
-      <c r="AN27" s="25">
+      <c r="AL27" s="26"/>
+      <c r="AM27" s="26"/>
+      <c r="AN27" s="32">
         <v>774001</v>
       </c>
       <c r="AP27">
@@ -6067,10 +6080,10 @@
       </c>
     </row>
     <row r="28" spans="1:58">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>28126</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C28">
@@ -6082,13 +6095,13 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="6">
         <v>1040123</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="7">
         <v>30327</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="8">
         <v>1</v>
       </c>
       <c r="I28">
@@ -6154,30 +6167,30 @@
       <c r="AC28">
         <v>10.4</v>
       </c>
-      <c r="AE28" s="19">
+      <c r="AE28" s="24">
         <v>781001</v>
       </c>
-      <c r="AF28" s="19">
+      <c r="AF28" s="24">
         <v>781002</v>
       </c>
-      <c r="AG28" s="19">
+      <c r="AG28" s="24">
         <v>781003</v>
       </c>
-      <c r="AH28" s="19">
+      <c r="AH28" s="24">
         <v>781004</v>
       </c>
-      <c r="AI28" s="19">
+      <c r="AI28" s="24">
         <v>781005</v>
       </c>
-      <c r="AJ28" s="19">
+      <c r="AJ28" s="24">
         <v>781006</v>
       </c>
-      <c r="AK28" s="19">
+      <c r="AK28" s="24">
         <v>781007</v>
       </c>
-      <c r="AL28" s="21"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="24">
+      <c r="AL28" s="26"/>
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="31">
         <v>781001</v>
       </c>
       <c r="AP28">
@@ -6232,10 +6245,10 @@
       </c>
     </row>
     <row r="29" spans="1:58">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>28127</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="C29">
@@ -6247,13 +6260,13 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="6">
         <v>1040125</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="7">
         <v>67</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <v>1</v>
       </c>
       <c r="I29">
@@ -6319,30 +6332,30 @@
       <c r="AC29">
         <v>10.4</v>
       </c>
-      <c r="AE29" s="20">
+      <c r="AE29" s="25">
         <v>782001</v>
       </c>
-      <c r="AF29" s="20">
+      <c r="AF29" s="25">
         <v>782002</v>
       </c>
-      <c r="AG29" s="20">
+      <c r="AG29" s="25">
         <v>782003</v>
       </c>
-      <c r="AH29" s="20">
+      <c r="AH29" s="25">
         <v>782004</v>
       </c>
-      <c r="AI29" s="20">
+      <c r="AI29" s="25">
         <v>782005</v>
       </c>
-      <c r="AJ29" s="20">
+      <c r="AJ29" s="25">
         <v>782006</v>
       </c>
-      <c r="AK29" s="20">
+      <c r="AK29" s="25">
         <v>782007</v>
       </c>
-      <c r="AL29" s="21"/>
-      <c r="AM29" s="21"/>
-      <c r="AN29" s="25">
+      <c r="AL29" s="26"/>
+      <c r="AM29" s="26"/>
+      <c r="AN29" s="32">
         <v>782002</v>
       </c>
       <c r="AP29">
@@ -6397,10 +6410,10 @@
       </c>
     </row>
     <row r="30" spans="1:58">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>28128</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C30">
@@ -6412,13 +6425,13 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6">
         <v>1040123</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="7">
         <v>30327</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="8">
         <v>1</v>
       </c>
       <c r="I30">
@@ -6484,30 +6497,30 @@
       <c r="AC30">
         <v>10.4</v>
       </c>
-      <c r="AE30" s="19">
+      <c r="AE30" s="24">
         <v>783001</v>
       </c>
-      <c r="AF30" s="19">
+      <c r="AF30" s="24">
         <v>783002</v>
       </c>
-      <c r="AG30" s="19">
+      <c r="AG30" s="24">
         <v>783003</v>
       </c>
-      <c r="AH30" s="19">
+      <c r="AH30" s="24">
         <v>783004</v>
       </c>
-      <c r="AI30" s="19">
+      <c r="AI30" s="24">
         <v>783005</v>
       </c>
-      <c r="AJ30" s="19">
+      <c r="AJ30" s="24">
         <v>783006</v>
       </c>
-      <c r="AK30" s="19">
+      <c r="AK30" s="24">
         <v>783007</v>
       </c>
-      <c r="AL30" s="21"/>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="24">
+      <c r="AL30" s="26"/>
+      <c r="AM30" s="26"/>
+      <c r="AN30" s="31">
         <v>783003</v>
       </c>
       <c r="AP30">
@@ -6562,10 +6575,10 @@
       </c>
     </row>
     <row r="31" spans="1:58">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>28129</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C31">
@@ -6577,13 +6590,13 @@
       <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="6">
         <v>1040119</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="11">
         <v>30329</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="8">
         <v>1</v>
       </c>
       <c r="I31">
@@ -6649,30 +6662,30 @@
       <c r="AC31">
         <v>10.4</v>
       </c>
-      <c r="AE31" s="20">
+      <c r="AE31" s="25">
         <v>791001</v>
       </c>
-      <c r="AF31" s="20">
+      <c r="AF31" s="25">
         <v>791002</v>
       </c>
-      <c r="AG31" s="20">
+      <c r="AG31" s="25">
         <v>791003</v>
       </c>
-      <c r="AH31" s="20">
+      <c r="AH31" s="25">
         <v>791004</v>
       </c>
-      <c r="AI31" s="20">
+      <c r="AI31" s="25">
         <v>791005</v>
       </c>
-      <c r="AJ31" s="20">
+      <c r="AJ31" s="25">
         <v>791006</v>
       </c>
-      <c r="AK31" s="20">
+      <c r="AK31" s="25">
         <v>791007</v>
       </c>
-      <c r="AL31" s="21"/>
-      <c r="AM31" s="21"/>
-      <c r="AN31" s="25">
+      <c r="AL31" s="26"/>
+      <c r="AM31" s="26"/>
+      <c r="AN31" s="32">
         <v>791002</v>
       </c>
       <c r="AP31">
@@ -6727,10 +6740,10 @@
       </c>
     </row>
     <row r="32" spans="1:58">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>28130</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C32">
@@ -6742,13 +6755,13 @@
       <c r="E32">
         <v>5</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6">
         <v>1040127</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="11">
         <v>65</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <v>1</v>
       </c>
       <c r="I32">
@@ -6814,32 +6827,32 @@
       <c r="AC32">
         <v>10.4</v>
       </c>
-      <c r="AE32" s="20">
+      <c r="AE32" s="25">
         <v>793001</v>
       </c>
-      <c r="AF32" s="20">
+      <c r="AF32" s="25">
         <v>793002</v>
       </c>
-      <c r="AG32" s="20">
+      <c r="AG32" s="25">
         <v>793003</v>
       </c>
-      <c r="AH32" s="20">
+      <c r="AH32" s="25">
         <v>793004</v>
       </c>
-      <c r="AI32" s="20">
+      <c r="AI32" s="25">
         <v>793005</v>
       </c>
-      <c r="AJ32" s="20">
+      <c r="AJ32" s="25">
         <v>793006</v>
       </c>
-      <c r="AK32" s="20">
+      <c r="AK32" s="25">
         <v>793007</v>
       </c>
-      <c r="AL32" s="20">
+      <c r="AL32" s="25">
         <v>792008</v>
       </c>
-      <c r="AM32" s="21"/>
-      <c r="AN32" s="25">
+      <c r="AM32" s="26"/>
+      <c r="AN32" s="32">
         <v>793004</v>
       </c>
       <c r="AP32">
@@ -6894,10 +6907,10 @@
       </c>
     </row>
     <row r="33" spans="1:58">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>28131</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C33">
@@ -6909,13 +6922,13 @@
       <c r="E33">
         <v>5</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="6">
         <v>1040120</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="11">
         <v>30331</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="8">
         <v>1</v>
       </c>
       <c r="I33">
@@ -6981,29 +6994,29 @@
       <c r="AC33">
         <v>10.4</v>
       </c>
-      <c r="AE33" s="19">
+      <c r="AE33" s="24">
         <v>794001</v>
       </c>
-      <c r="AF33" s="19">
+      <c r="AF33" s="24">
         <v>794002</v>
       </c>
-      <c r="AG33" s="19">
+      <c r="AG33" s="24">
         <v>794003</v>
       </c>
-      <c r="AH33" s="19">
+      <c r="AH33" s="24">
         <v>794004</v>
       </c>
-      <c r="AI33" s="19">
+      <c r="AI33" s="24">
         <v>794005</v>
       </c>
-      <c r="AJ33" s="19">
+      <c r="AJ33" s="24">
         <v>794006</v>
       </c>
-      <c r="AK33" s="19">
+      <c r="AK33" s="24">
         <v>794007</v>
       </c>
-      <c r="AM33" s="21"/>
-      <c r="AN33" s="24">
+      <c r="AM33" s="26"/>
+      <c r="AN33" s="31">
         <v>794001</v>
       </c>
       <c r="AP33">
@@ -7058,10 +7071,10 @@
       </c>
     </row>
     <row r="34" spans="1:58">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>28132</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C34">
@@ -7073,13 +7086,13 @@
       <c r="E34">
         <v>5</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6">
         <v>1040120</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="11">
         <v>30331</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="8">
         <v>1</v>
       </c>
       <c r="I34">
@@ -7145,30 +7158,30 @@
       <c r="AC34">
         <v>10.4</v>
       </c>
-      <c r="AE34" s="20">
+      <c r="AE34" s="25">
         <v>795001</v>
       </c>
-      <c r="AF34" s="20">
+      <c r="AF34" s="25">
         <v>795002</v>
       </c>
-      <c r="AG34" s="20">
+      <c r="AG34" s="25">
         <v>795003</v>
       </c>
-      <c r="AH34" s="20">
+      <c r="AH34" s="25">
         <v>795004</v>
       </c>
-      <c r="AI34" s="20">
+      <c r="AI34" s="25">
         <v>795005</v>
       </c>
-      <c r="AJ34" s="20">
+      <c r="AJ34" s="25">
         <v>795006</v>
       </c>
-      <c r="AK34" s="20">
+      <c r="AK34" s="25">
         <v>795007</v>
       </c>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
-      <c r="AN34" s="25">
+      <c r="AL34" s="26"/>
+      <c r="AM34" s="26"/>
+      <c r="AN34" s="32">
         <v>795004</v>
       </c>
       <c r="AP34">
@@ -7223,489 +7236,489 @@
       </c>
     </row>
     <row r="35" spans="7:39">
-      <c r="G35" s="9"/>
-      <c r="AL35" s="21"/>
-      <c r="AM35" s="21"/>
+      <c r="G35" s="10"/>
+      <c r="AL35" s="26"/>
+      <c r="AM35" s="26"/>
     </row>
     <row r="38" spans="38:39">
-      <c r="AL38" s="21"/>
-      <c r="AM38" s="21"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
     </row>
     <row r="39" spans="38:39">
-      <c r="AL39" s="21"/>
-      <c r="AM39" s="21"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
     </row>
     <row r="40" spans="38:39">
-      <c r="AL40" s="21"/>
-      <c r="AM40" s="21"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
     </row>
     <row r="41" spans="38:39">
-      <c r="AL41" s="21"/>
-      <c r="AM41" s="21"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
     </row>
     <row r="42" spans="38:39">
-      <c r="AL42" s="21"/>
-      <c r="AM42" s="21"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
     </row>
     <row r="43" spans="38:39">
-      <c r="AL43" s="21"/>
-      <c r="AM43" s="21"/>
+      <c r="AL43" s="26"/>
+      <c r="AM43" s="26"/>
     </row>
     <row r="44" spans="38:39">
-      <c r="AL44" s="21"/>
-      <c r="AM44" s="21"/>
+      <c r="AL44" s="26"/>
+      <c r="AM44" s="26"/>
     </row>
     <row r="45" spans="38:39">
-      <c r="AL45" s="21"/>
-      <c r="AM45" s="21"/>
+      <c r="AL45" s="26"/>
+      <c r="AM45" s="26"/>
     </row>
     <row r="46" spans="38:39">
-      <c r="AL46" s="21"/>
-      <c r="AM46" s="21"/>
+      <c r="AL46" s="26"/>
+      <c r="AM46" s="26"/>
     </row>
     <row r="47" spans="38:39">
-      <c r="AL47" s="21"/>
-      <c r="AM47" s="21"/>
+      <c r="AL47" s="26"/>
+      <c r="AM47" s="26"/>
     </row>
     <row r="48" spans="38:39">
-      <c r="AL48" s="21"/>
-      <c r="AM48" s="21"/>
+      <c r="AL48" s="26"/>
+      <c r="AM48" s="26"/>
     </row>
     <row r="49" spans="38:39">
-      <c r="AL49" s="21"/>
-      <c r="AM49" s="21"/>
+      <c r="AL49" s="26"/>
+      <c r="AM49" s="26"/>
     </row>
     <row r="50" spans="38:39">
-      <c r="AL50" s="21"/>
-      <c r="AM50" s="21"/>
+      <c r="AL50" s="26"/>
+      <c r="AM50" s="26"/>
     </row>
     <row r="51" spans="38:39">
-      <c r="AL51" s="21"/>
-      <c r="AM51" s="21"/>
+      <c r="AL51" s="26"/>
+      <c r="AM51" s="26"/>
     </row>
     <row r="52" spans="38:39">
-      <c r="AL52" s="21"/>
-      <c r="AM52" s="21"/>
+      <c r="AL52" s="26"/>
+      <c r="AM52" s="26"/>
     </row>
     <row r="53" spans="38:39">
-      <c r="AL53" s="21"/>
-      <c r="AM53" s="21"/>
+      <c r="AL53" s="26"/>
+      <c r="AM53" s="26"/>
     </row>
     <row r="54" spans="38:39">
-      <c r="AL54" s="21"/>
-      <c r="AM54" s="21"/>
+      <c r="AL54" s="26"/>
+      <c r="AM54" s="26"/>
     </row>
     <row r="55" spans="38:39">
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
+      <c r="AL55" s="26"/>
+      <c r="AM55" s="26"/>
     </row>
     <row r="56" spans="38:39">
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
+      <c r="AL56" s="26"/>
+      <c r="AM56" s="26"/>
     </row>
     <row r="57" spans="38:39">
-      <c r="AL57" s="21"/>
-      <c r="AM57" s="21"/>
+      <c r="AL57" s="26"/>
+      <c r="AM57" s="26"/>
     </row>
     <row r="58" spans="38:39">
-      <c r="AL58" s="21"/>
-      <c r="AM58" s="21"/>
+      <c r="AL58" s="26"/>
+      <c r="AM58" s="26"/>
     </row>
     <row r="59" spans="38:39">
-      <c r="AL59" s="21"/>
-      <c r="AM59" s="21"/>
+      <c r="AL59" s="26"/>
+      <c r="AM59" s="26"/>
     </row>
     <row r="60" spans="38:39">
-      <c r="AL60" s="21"/>
-      <c r="AM60" s="21"/>
+      <c r="AL60" s="26"/>
+      <c r="AM60" s="26"/>
     </row>
     <row r="61" spans="38:39">
-      <c r="AL61" s="21"/>
-      <c r="AM61" s="21"/>
+      <c r="AL61" s="26"/>
+      <c r="AM61" s="26"/>
     </row>
     <row r="62" spans="38:39">
-      <c r="AL62" s="21"/>
-      <c r="AM62" s="21"/>
+      <c r="AL62" s="26"/>
+      <c r="AM62" s="26"/>
     </row>
     <row r="63" spans="38:39">
-      <c r="AL63" s="21"/>
-      <c r="AM63" s="21"/>
+      <c r="AL63" s="26"/>
+      <c r="AM63" s="26"/>
     </row>
     <row r="64" spans="38:39">
-      <c r="AL64" s="21"/>
-      <c r="AM64" s="21"/>
+      <c r="AL64" s="26"/>
+      <c r="AM64" s="26"/>
     </row>
     <row r="65" spans="38:39">
-      <c r="AL65" s="21"/>
-      <c r="AM65" s="21"/>
+      <c r="AL65" s="26"/>
+      <c r="AM65" s="26"/>
     </row>
     <row r="66" spans="38:39">
-      <c r="AL66" s="21"/>
-      <c r="AM66" s="21"/>
+      <c r="AL66" s="26"/>
+      <c r="AM66" s="26"/>
     </row>
     <row r="67" spans="38:39">
-      <c r="AL67" s="21"/>
-      <c r="AM67" s="21"/>
+      <c r="AL67" s="26"/>
+      <c r="AM67" s="26"/>
     </row>
     <row r="68" spans="38:39">
-      <c r="AL68" s="21"/>
-      <c r="AM68" s="21"/>
+      <c r="AL68" s="26"/>
+      <c r="AM68" s="26"/>
     </row>
     <row r="69" spans="38:39">
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
+      <c r="AL69" s="26"/>
+      <c r="AM69" s="26"/>
     </row>
     <row r="70" spans="38:39">
-      <c r="AL70" s="21"/>
-      <c r="AM70" s="21"/>
+      <c r="AL70" s="26"/>
+      <c r="AM70" s="26"/>
     </row>
     <row r="71" spans="38:39">
-      <c r="AL71" s="21"/>
-      <c r="AM71" s="21"/>
+      <c r="AL71" s="26"/>
+      <c r="AM71" s="26"/>
     </row>
     <row r="72" spans="38:39">
-      <c r="AL72" s="21"/>
-      <c r="AM72" s="21"/>
+      <c r="AL72" s="26"/>
+      <c r="AM72" s="26"/>
     </row>
     <row r="73" spans="38:39">
-      <c r="AL73" s="21"/>
-      <c r="AM73" s="21"/>
+      <c r="AL73" s="26"/>
+      <c r="AM73" s="26"/>
     </row>
     <row r="74" spans="38:39">
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
+      <c r="AL74" s="26"/>
+      <c r="AM74" s="26"/>
     </row>
     <row r="75" spans="38:39">
-      <c r="AL75" s="21"/>
-      <c r="AM75" s="21"/>
+      <c r="AL75" s="26"/>
+      <c r="AM75" s="26"/>
     </row>
     <row r="76" spans="38:39">
-      <c r="AL76" s="21"/>
-      <c r="AM76" s="21"/>
+      <c r="AL76" s="26"/>
+      <c r="AM76" s="26"/>
     </row>
     <row r="77" spans="38:39">
-      <c r="AL77" s="21"/>
-      <c r="AM77" s="21"/>
+      <c r="AL77" s="26"/>
+      <c r="AM77" s="26"/>
     </row>
     <row r="78" spans="38:39">
-      <c r="AL78" s="21"/>
-      <c r="AM78" s="21"/>
+      <c r="AL78" s="26"/>
+      <c r="AM78" s="26"/>
     </row>
     <row r="79" spans="38:39">
-      <c r="AL79" s="21"/>
-      <c r="AM79" s="21"/>
+      <c r="AL79" s="26"/>
+      <c r="AM79" s="26"/>
     </row>
     <row r="80" spans="38:39">
-      <c r="AL80" s="21"/>
-      <c r="AM80" s="21"/>
+      <c r="AL80" s="26"/>
+      <c r="AM80" s="26"/>
     </row>
     <row r="81" spans="38:39">
-      <c r="AL81" s="21"/>
-      <c r="AM81" s="21"/>
+      <c r="AL81" s="26"/>
+      <c r="AM81" s="26"/>
     </row>
     <row r="82" spans="38:39">
-      <c r="AL82" s="21"/>
-      <c r="AM82" s="21"/>
+      <c r="AL82" s="26"/>
+      <c r="AM82" s="26"/>
     </row>
     <row r="83" spans="38:39">
-      <c r="AL83" s="21"/>
-      <c r="AM83" s="21"/>
+      <c r="AL83" s="26"/>
+      <c r="AM83" s="26"/>
     </row>
     <row r="84" spans="38:39">
-      <c r="AL84" s="21"/>
-      <c r="AM84" s="21"/>
+      <c r="AL84" s="26"/>
+      <c r="AM84" s="26"/>
     </row>
     <row r="85" spans="38:39">
-      <c r="AL85" s="21"/>
-      <c r="AM85" s="21"/>
+      <c r="AL85" s="26"/>
+      <c r="AM85" s="26"/>
     </row>
     <row r="86" spans="38:39">
-      <c r="AL86" s="21"/>
-      <c r="AM86" s="21"/>
+      <c r="AL86" s="26"/>
+      <c r="AM86" s="26"/>
     </row>
     <row r="87" spans="38:39">
-      <c r="AL87" s="21"/>
-      <c r="AM87" s="21"/>
+      <c r="AL87" s="26"/>
+      <c r="AM87" s="26"/>
     </row>
     <row r="88" spans="38:39">
-      <c r="AL88" s="21"/>
-      <c r="AM88" s="21"/>
+      <c r="AL88" s="26"/>
+      <c r="AM88" s="26"/>
     </row>
     <row r="89" spans="38:39">
-      <c r="AL89" s="21"/>
-      <c r="AM89" s="21"/>
+      <c r="AL89" s="26"/>
+      <c r="AM89" s="26"/>
     </row>
     <row r="90" spans="38:39">
-      <c r="AL90" s="21"/>
-      <c r="AM90" s="21"/>
+      <c r="AL90" s="26"/>
+      <c r="AM90" s="26"/>
     </row>
     <row r="91" spans="38:39">
-      <c r="AL91" s="21"/>
-      <c r="AM91" s="21"/>
+      <c r="AL91" s="26"/>
+      <c r="AM91" s="26"/>
     </row>
     <row r="92" spans="38:39">
-      <c r="AL92" s="21"/>
-      <c r="AM92" s="21"/>
+      <c r="AL92" s="26"/>
+      <c r="AM92" s="26"/>
     </row>
     <row r="93" spans="38:39">
-      <c r="AL93" s="21"/>
-      <c r="AM93" s="21"/>
+      <c r="AL93" s="26"/>
+      <c r="AM93" s="26"/>
     </row>
     <row r="94" spans="38:39">
-      <c r="AL94" s="21"/>
-      <c r="AM94" s="21"/>
+      <c r="AL94" s="26"/>
+      <c r="AM94" s="26"/>
     </row>
     <row r="95" spans="38:39">
-      <c r="AL95" s="21"/>
-      <c r="AM95" s="21"/>
+      <c r="AL95" s="26"/>
+      <c r="AM95" s="26"/>
     </row>
     <row r="96" spans="38:39">
-      <c r="AL96" s="21"/>
-      <c r="AM96" s="21"/>
+      <c r="AL96" s="26"/>
+      <c r="AM96" s="26"/>
     </row>
     <row r="97" spans="38:39">
-      <c r="AL97" s="21"/>
-      <c r="AM97" s="21"/>
+      <c r="AL97" s="26"/>
+      <c r="AM97" s="26"/>
     </row>
     <row r="98" spans="38:39">
-      <c r="AL98" s="21"/>
-      <c r="AM98" s="21"/>
+      <c r="AL98" s="26"/>
+      <c r="AM98" s="26"/>
     </row>
     <row r="99" spans="38:39">
-      <c r="AL99" s="21"/>
-      <c r="AM99" s="21"/>
+      <c r="AL99" s="26"/>
+      <c r="AM99" s="26"/>
     </row>
     <row r="100" spans="38:39">
-      <c r="AL100" s="21"/>
-      <c r="AM100" s="21"/>
+      <c r="AL100" s="26"/>
+      <c r="AM100" s="26"/>
     </row>
     <row r="101" spans="38:39">
-      <c r="AL101" s="21"/>
-      <c r="AM101" s="21"/>
+      <c r="AL101" s="26"/>
+      <c r="AM101" s="26"/>
     </row>
     <row r="102" spans="38:39">
-      <c r="AL102" s="21"/>
-      <c r="AM102" s="21"/>
+      <c r="AL102" s="26"/>
+      <c r="AM102" s="26"/>
     </row>
     <row r="103" spans="38:39">
-      <c r="AL103" s="21"/>
-      <c r="AM103" s="21"/>
+      <c r="AL103" s="26"/>
+      <c r="AM103" s="26"/>
     </row>
     <row r="104" spans="38:39">
-      <c r="AL104" s="21"/>
-      <c r="AM104" s="21"/>
+      <c r="AL104" s="26"/>
+      <c r="AM104" s="26"/>
     </row>
     <row r="105" spans="38:39">
-      <c r="AL105" s="21"/>
-      <c r="AM105" s="21"/>
+      <c r="AL105" s="26"/>
+      <c r="AM105" s="26"/>
     </row>
     <row r="106" spans="38:39">
-      <c r="AL106" s="21"/>
-      <c r="AM106" s="21"/>
+      <c r="AL106" s="26"/>
+      <c r="AM106" s="26"/>
     </row>
     <row r="107" spans="38:39">
-      <c r="AL107" s="21"/>
-      <c r="AM107" s="21"/>
+      <c r="AL107" s="26"/>
+      <c r="AM107" s="26"/>
     </row>
     <row r="108" spans="38:39">
-      <c r="AL108" s="21"/>
-      <c r="AM108" s="21"/>
+      <c r="AL108" s="26"/>
+      <c r="AM108" s="26"/>
     </row>
     <row r="109" spans="38:39">
-      <c r="AL109" s="21"/>
-      <c r="AM109" s="21"/>
+      <c r="AL109" s="26"/>
+      <c r="AM109" s="26"/>
     </row>
     <row r="110" spans="38:39">
-      <c r="AL110" s="21"/>
-      <c r="AM110" s="21"/>
+      <c r="AL110" s="26"/>
+      <c r="AM110" s="26"/>
     </row>
     <row r="111" spans="38:39">
-      <c r="AL111" s="21"/>
-      <c r="AM111" s="21"/>
+      <c r="AL111" s="26"/>
+      <c r="AM111" s="26"/>
     </row>
     <row r="112" spans="38:39">
-      <c r="AL112" s="21"/>
-      <c r="AM112" s="21"/>
+      <c r="AL112" s="26"/>
+      <c r="AM112" s="26"/>
     </row>
     <row r="113" spans="38:39">
-      <c r="AL113" s="21"/>
-      <c r="AM113" s="21"/>
+      <c r="AL113" s="26"/>
+      <c r="AM113" s="26"/>
     </row>
     <row r="114" spans="38:39">
-      <c r="AL114" s="21"/>
-      <c r="AM114" s="21"/>
+      <c r="AL114" s="26"/>
+      <c r="AM114" s="26"/>
     </row>
     <row r="115" spans="38:39">
-      <c r="AL115" s="21"/>
-      <c r="AM115" s="21"/>
+      <c r="AL115" s="26"/>
+      <c r="AM115" s="26"/>
     </row>
     <row r="116" spans="38:39">
-      <c r="AL116" s="21"/>
-      <c r="AM116" s="21"/>
+      <c r="AL116" s="26"/>
+      <c r="AM116" s="26"/>
     </row>
     <row r="117" spans="38:39">
-      <c r="AL117" s="21"/>
-      <c r="AM117" s="21"/>
+      <c r="AL117" s="26"/>
+      <c r="AM117" s="26"/>
     </row>
     <row r="118" spans="38:39">
-      <c r="AL118" s="21"/>
-      <c r="AM118" s="21"/>
+      <c r="AL118" s="26"/>
+      <c r="AM118" s="26"/>
     </row>
     <row r="119" spans="38:39">
-      <c r="AL119" s="21"/>
-      <c r="AM119" s="21"/>
+      <c r="AL119" s="26"/>
+      <c r="AM119" s="26"/>
     </row>
     <row r="120" spans="38:39">
-      <c r="AL120" s="21"/>
-      <c r="AM120" s="21"/>
+      <c r="AL120" s="26"/>
+      <c r="AM120" s="26"/>
     </row>
     <row r="121" spans="38:39">
-      <c r="AL121" s="21"/>
-      <c r="AM121" s="21"/>
+      <c r="AL121" s="26"/>
+      <c r="AM121" s="26"/>
     </row>
     <row r="122" spans="38:39">
-      <c r="AL122" s="21"/>
-      <c r="AM122" s="21"/>
+      <c r="AL122" s="26"/>
+      <c r="AM122" s="26"/>
     </row>
     <row r="123" spans="38:39">
-      <c r="AL123" s="21"/>
-      <c r="AM123" s="21"/>
+      <c r="AL123" s="26"/>
+      <c r="AM123" s="26"/>
     </row>
     <row r="124" spans="38:39">
-      <c r="AL124" s="21"/>
-      <c r="AM124" s="21"/>
+      <c r="AL124" s="26"/>
+      <c r="AM124" s="26"/>
     </row>
     <row r="125" spans="38:39">
-      <c r="AL125" s="21"/>
-      <c r="AM125" s="21"/>
+      <c r="AL125" s="26"/>
+      <c r="AM125" s="26"/>
     </row>
     <row r="126" spans="38:39">
-      <c r="AL126" s="21"/>
-      <c r="AM126" s="21"/>
+      <c r="AL126" s="26"/>
+      <c r="AM126" s="26"/>
     </row>
     <row r="127" spans="38:39">
-      <c r="AL127" s="21"/>
-      <c r="AM127" s="21"/>
+      <c r="AL127" s="26"/>
+      <c r="AM127" s="26"/>
     </row>
     <row r="128" spans="38:39">
-      <c r="AL128" s="21"/>
-      <c r="AM128" s="21"/>
+      <c r="AL128" s="26"/>
+      <c r="AM128" s="26"/>
     </row>
     <row r="129" spans="38:39">
-      <c r="AL129" s="21"/>
-      <c r="AM129" s="21"/>
+      <c r="AL129" s="26"/>
+      <c r="AM129" s="26"/>
     </row>
     <row r="130" spans="38:39">
-      <c r="AL130" s="21"/>
-      <c r="AM130" s="21"/>
+      <c r="AL130" s="26"/>
+      <c r="AM130" s="26"/>
     </row>
     <row r="131" spans="38:39">
-      <c r="AL131" s="21"/>
-      <c r="AM131" s="21"/>
+      <c r="AL131" s="26"/>
+      <c r="AM131" s="26"/>
     </row>
     <row r="132" spans="38:39">
-      <c r="AL132" s="21"/>
-      <c r="AM132" s="21"/>
+      <c r="AL132" s="26"/>
+      <c r="AM132" s="26"/>
     </row>
     <row r="133" spans="38:39">
-      <c r="AL133" s="21"/>
-      <c r="AM133" s="21"/>
+      <c r="AL133" s="26"/>
+      <c r="AM133" s="26"/>
     </row>
     <row r="134" spans="38:39">
-      <c r="AL134" s="21"/>
-      <c r="AM134" s="21"/>
+      <c r="AL134" s="26"/>
+      <c r="AM134" s="26"/>
     </row>
     <row r="135" spans="38:39">
-      <c r="AL135" s="21"/>
-      <c r="AM135" s="21"/>
+      <c r="AL135" s="26"/>
+      <c r="AM135" s="26"/>
     </row>
     <row r="136" spans="38:39">
-      <c r="AL136" s="21"/>
-      <c r="AM136" s="21"/>
+      <c r="AL136" s="26"/>
+      <c r="AM136" s="26"/>
     </row>
     <row r="137" spans="38:39">
-      <c r="AL137" s="21"/>
-      <c r="AM137" s="21"/>
+      <c r="AL137" s="26"/>
+      <c r="AM137" s="26"/>
     </row>
     <row r="138" spans="38:39">
-      <c r="AL138" s="21"/>
-      <c r="AM138" s="21"/>
+      <c r="AL138" s="26"/>
+      <c r="AM138" s="26"/>
     </row>
     <row r="139" spans="38:39">
-      <c r="AL139" s="21"/>
-      <c r="AM139" s="21"/>
+      <c r="AL139" s="26"/>
+      <c r="AM139" s="26"/>
     </row>
     <row r="140" spans="38:39">
-      <c r="AL140" s="21"/>
-      <c r="AM140" s="21"/>
+      <c r="AL140" s="26"/>
+      <c r="AM140" s="26"/>
     </row>
     <row r="141" spans="38:39">
-      <c r="AL141" s="21"/>
-      <c r="AM141" s="21"/>
+      <c r="AL141" s="26"/>
+      <c r="AM141" s="26"/>
     </row>
     <row r="142" spans="38:39">
-      <c r="AL142" s="21"/>
-      <c r="AM142" s="21"/>
+      <c r="AL142" s="26"/>
+      <c r="AM142" s="26"/>
     </row>
     <row r="143" spans="38:39">
-      <c r="AL143" s="21"/>
-      <c r="AM143" s="21"/>
+      <c r="AL143" s="26"/>
+      <c r="AM143" s="26"/>
     </row>
     <row r="144" spans="38:39">
-      <c r="AL144" s="21"/>
-      <c r="AM144" s="21"/>
+      <c r="AL144" s="26"/>
+      <c r="AM144" s="26"/>
     </row>
     <row r="145" spans="38:39">
-      <c r="AL145" s="21"/>
-      <c r="AM145" s="21"/>
+      <c r="AL145" s="26"/>
+      <c r="AM145" s="26"/>
     </row>
     <row r="146" spans="38:39">
-      <c r="AL146" s="21"/>
-      <c r="AM146" s="21"/>
+      <c r="AL146" s="26"/>
+      <c r="AM146" s="26"/>
     </row>
     <row r="147" spans="38:39">
-      <c r="AL147" s="21"/>
-      <c r="AM147" s="21"/>
+      <c r="AL147" s="26"/>
+      <c r="AM147" s="26"/>
     </row>
     <row r="148" spans="38:39">
-      <c r="AL148" s="21"/>
-      <c r="AM148" s="21"/>
+      <c r="AL148" s="26"/>
+      <c r="AM148" s="26"/>
     </row>
     <row r="149" spans="38:39">
-      <c r="AL149" s="21"/>
-      <c r="AM149" s="21"/>
+      <c r="AL149" s="26"/>
+      <c r="AM149" s="26"/>
     </row>
     <row r="150" spans="38:39">
-      <c r="AL150" s="21"/>
-      <c r="AM150" s="21"/>
+      <c r="AL150" s="26"/>
+      <c r="AM150" s="26"/>
     </row>
     <row r="151" spans="38:39">
-      <c r="AL151" s="21"/>
-      <c r="AM151" s="21"/>
+      <c r="AL151" s="26"/>
+      <c r="AM151" s="26"/>
     </row>
     <row r="152" spans="38:39">
-      <c r="AL152" s="21"/>
-      <c r="AM152" s="21"/>
+      <c r="AL152" s="26"/>
+      <c r="AM152" s="26"/>
     </row>
     <row r="153" spans="38:39">
-      <c r="AL153" s="21"/>
-      <c r="AM153" s="21"/>
+      <c r="AL153" s="26"/>
+      <c r="AM153" s="26"/>
     </row>
     <row r="154" spans="38:39">
-      <c r="AL154" s="21"/>
-      <c r="AM154" s="21"/>
+      <c r="AL154" s="26"/>
+      <c r="AM154" s="26"/>
     </row>
     <row r="155" spans="38:39">
-      <c r="AL155" s="21"/>
-      <c r="AM155" s="21"/>
+      <c r="AL155" s="26"/>
+      <c r="AM155" s="26"/>
     </row>
     <row r="156" spans="38:39">
-      <c r="AL156" s="21"/>
-      <c r="AM156" s="21"/>
+      <c r="AL156" s="26"/>
+      <c r="AM156" s="26"/>
     </row>
     <row r="157" spans="38:39">
-      <c r="AL157" s="21"/>
-      <c r="AM157" s="21"/>
+      <c r="AL157" s="26"/>
+      <c r="AM157" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:BF34">
@@ -7727,7 +7740,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7744,7 +7757,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
